--- a/data/pca/factorExposure/factorExposure_2012-03-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01439082942590686</v>
+        <v>0.01494373354691488</v>
       </c>
       <c r="C2">
-        <v>0.03213456677497971</v>
+        <v>0.02675298089948661</v>
       </c>
       <c r="D2">
-        <v>0.0005810398102034681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00376247583007325</v>
+      </c>
+      <c r="E2">
+        <v>0.01046650795346492</v>
+      </c>
+      <c r="F2">
+        <v>0.01203503433451263</v>
+      </c>
+      <c r="G2">
+        <v>0.01662993556701203</v>
+      </c>
+      <c r="H2">
+        <v>-0.05080041098534886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07402472499758173</v>
+        <v>0.08792227508365595</v>
       </c>
       <c r="C4">
-        <v>0.05221772543932128</v>
+        <v>0.03799221966464276</v>
       </c>
       <c r="D4">
-        <v>0.08282896228054684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06560881747029586</v>
+      </c>
+      <c r="E4">
+        <v>0.01517608039248352</v>
+      </c>
+      <c r="F4">
+        <v>0.03006868032717211</v>
+      </c>
+      <c r="G4">
+        <v>0.003697053531885985</v>
+      </c>
+      <c r="H4">
+        <v>0.04138468460635032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1076761899506549</v>
+        <v>0.1194932246106907</v>
       </c>
       <c r="C6">
-        <v>0.05564047163537448</v>
+        <v>0.03470414490051393</v>
       </c>
       <c r="D6">
-        <v>-0.006071139688060862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01041463934440671</v>
+      </c>
+      <c r="E6">
+        <v>-0.003349362363630982</v>
+      </c>
+      <c r="F6">
+        <v>0.05376019016072864</v>
+      </c>
+      <c r="G6">
+        <v>0.032311162816344</v>
+      </c>
+      <c r="H6">
+        <v>-0.1075259475311886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04985416325166544</v>
+        <v>0.06398774722288224</v>
       </c>
       <c r="C7">
-        <v>0.02881954978428763</v>
+        <v>0.02064000025361092</v>
       </c>
       <c r="D7">
-        <v>0.0448915110752589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04564439498461956</v>
+      </c>
+      <c r="E7">
+        <v>0.03655163143545242</v>
+      </c>
+      <c r="F7">
+        <v>0.03361624290227948</v>
+      </c>
+      <c r="G7">
+        <v>-0.03680702619641035</v>
+      </c>
+      <c r="H7">
+        <v>0.005626385391342032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03734974822550424</v>
+        <v>0.04014484692433373</v>
       </c>
       <c r="C8">
-        <v>0.01107965515573262</v>
+        <v>0.006890074117288298</v>
       </c>
       <c r="D8">
-        <v>0.05102114658623187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02100449263725153</v>
+      </c>
+      <c r="E8">
+        <v>0.03721897750315357</v>
+      </c>
+      <c r="F8">
+        <v>0.04853361128814958</v>
+      </c>
+      <c r="G8">
+        <v>0.05562720917067111</v>
+      </c>
+      <c r="H8">
+        <v>-0.004403870004139605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06730931526480813</v>
+        <v>0.07913377183126587</v>
       </c>
       <c r="C9">
-        <v>0.0421754852431674</v>
+        <v>0.02835564148061338</v>
       </c>
       <c r="D9">
-        <v>0.07115603463135939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0630097005403657</v>
+      </c>
+      <c r="E9">
+        <v>0.03809523605909815</v>
+      </c>
+      <c r="F9">
+        <v>0.03087969341387772</v>
+      </c>
+      <c r="G9">
+        <v>0.008236345145094357</v>
+      </c>
+      <c r="H9">
+        <v>0.04739185244547794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02917228334061203</v>
+        <v>0.03407643840308298</v>
       </c>
       <c r="C10">
-        <v>0.03420514320755487</v>
+        <v>0.04223318929287166</v>
       </c>
       <c r="D10">
-        <v>-0.1832592868581824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1708506447997485</v>
+      </c>
+      <c r="E10">
+        <v>0.0489586929570179</v>
+      </c>
+      <c r="F10">
+        <v>0.04559213172706687</v>
+      </c>
+      <c r="G10">
+        <v>-0.03068539418470925</v>
+      </c>
+      <c r="H10">
+        <v>-0.04512338555460935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07041171589463387</v>
+        <v>0.07622256227102767</v>
       </c>
       <c r="C11">
-        <v>0.0475439479914327</v>
+        <v>0.02810184339030867</v>
       </c>
       <c r="D11">
-        <v>0.05525181308094402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06267526469247416</v>
+      </c>
+      <c r="E11">
+        <v>-0.002708428913441213</v>
+      </c>
+      <c r="F11">
+        <v>0.02718407038011622</v>
+      </c>
+      <c r="G11">
+        <v>-0.004325216781385721</v>
+      </c>
+      <c r="H11">
+        <v>0.08614200423714809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05845830107667563</v>
+        <v>0.06734531437758559</v>
       </c>
       <c r="C12">
-        <v>0.05239313395010351</v>
+        <v>0.03712925537839489</v>
       </c>
       <c r="D12">
-        <v>0.04183934663486144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04740993639263582</v>
+      </c>
+      <c r="E12">
+        <v>0.01290050232290404</v>
+      </c>
+      <c r="F12">
+        <v>0.0192985179115138</v>
+      </c>
+      <c r="G12">
+        <v>0.001586057374473952</v>
+      </c>
+      <c r="H12">
+        <v>0.04382066123135395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06083291174038138</v>
+        <v>0.06556609039156444</v>
       </c>
       <c r="C13">
-        <v>0.04064979988290048</v>
+        <v>0.02566024374841786</v>
       </c>
       <c r="D13">
-        <v>0.06136129260010011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04046700986645778</v>
+      </c>
+      <c r="E13">
+        <v>0.01365378777073881</v>
+      </c>
+      <c r="F13">
+        <v>0.004077995613172822</v>
+      </c>
+      <c r="G13">
+        <v>-0.008947957824849256</v>
+      </c>
+      <c r="H13">
+        <v>0.03818078822554094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03331631876645006</v>
+        <v>0.04116630115510548</v>
       </c>
       <c r="C14">
-        <v>0.03217212034547046</v>
+        <v>0.02790543968522096</v>
       </c>
       <c r="D14">
-        <v>0.001400376866850044</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.006243963061100448</v>
+      </c>
+      <c r="E14">
+        <v>0.03279962653439782</v>
+      </c>
+      <c r="F14">
+        <v>0.01176367558942897</v>
+      </c>
+      <c r="G14">
+        <v>0.004750872788807058</v>
+      </c>
+      <c r="H14">
+        <v>0.05695978489368521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.0393298751833384</v>
+        <v>0.0394117381427139</v>
       </c>
       <c r="C15">
-        <v>0.01089085195270119</v>
+        <v>0.003181161233970875</v>
       </c>
       <c r="D15">
-        <v>0.01680925768942527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.003537651204900417</v>
+      </c>
+      <c r="E15">
+        <v>0.04134989852134987</v>
+      </c>
+      <c r="F15">
+        <v>-0.007143605369935756</v>
+      </c>
+      <c r="G15">
+        <v>0.0248413206939231</v>
+      </c>
+      <c r="H15">
+        <v>0.03656166923925993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06104791339804224</v>
+        <v>0.07037652359760577</v>
       </c>
       <c r="C16">
-        <v>0.04349660685844241</v>
+        <v>0.0288201990066599</v>
       </c>
       <c r="D16">
-        <v>0.04474419641731197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06181569296281812</v>
+      </c>
+      <c r="E16">
+        <v>0.006478845937973067</v>
+      </c>
+      <c r="F16">
+        <v>0.02407253855835585</v>
+      </c>
+      <c r="G16">
+        <v>-0.003743523294463748</v>
+      </c>
+      <c r="H16">
+        <v>0.0522390352909042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0634488015048518</v>
+        <v>0.06290090340140918</v>
       </c>
       <c r="C20">
-        <v>0.0307498197437182</v>
+        <v>0.01294824653022295</v>
       </c>
       <c r="D20">
-        <v>0.05027083389436802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04108684570487829</v>
+      </c>
+      <c r="E20">
+        <v>0.03406664348097152</v>
+      </c>
+      <c r="F20">
+        <v>0.01547560478023113</v>
+      </c>
+      <c r="G20">
+        <v>0.009291346740330164</v>
+      </c>
+      <c r="H20">
+        <v>0.04399977499644245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02407775477788509</v>
+        <v>0.02450663132165451</v>
       </c>
       <c r="C21">
-        <v>-0.00282430830457674</v>
+        <v>-0.01050522697045595</v>
       </c>
       <c r="D21">
-        <v>0.02485372808388308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02822889307446299</v>
+      </c>
+      <c r="E21">
+        <v>0.0420790598277437</v>
+      </c>
+      <c r="F21">
+        <v>-0.01455158844069045</v>
+      </c>
+      <c r="G21">
+        <v>0.00946888752112199</v>
+      </c>
+      <c r="H21">
+        <v>-0.04845953788908763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07827193801684149</v>
+        <v>0.07244354395110793</v>
       </c>
       <c r="C22">
-        <v>0.06129072135913295</v>
+        <v>0.04039570960497258</v>
       </c>
       <c r="D22">
-        <v>0.09667363913146396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06456474296987698</v>
+      </c>
+      <c r="E22">
+        <v>0.5671038865111712</v>
+      </c>
+      <c r="F22">
+        <v>-0.2361953836783037</v>
+      </c>
+      <c r="G22">
+        <v>-0.07203408775177569</v>
+      </c>
+      <c r="H22">
+        <v>-0.1544155791034117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07924825284474939</v>
+        <v>0.07307818678485646</v>
       </c>
       <c r="C23">
-        <v>0.06020188691959268</v>
+        <v>0.03908894539215297</v>
       </c>
       <c r="D23">
-        <v>0.09824773673791286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06543169424679293</v>
+      </c>
+      <c r="E23">
+        <v>0.5665258097029289</v>
+      </c>
+      <c r="F23">
+        <v>-0.2348668860465454</v>
+      </c>
+      <c r="G23">
+        <v>-0.07064216838292807</v>
+      </c>
+      <c r="H23">
+        <v>-0.1494474722361992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0713390325316391</v>
+        <v>0.07957056511060448</v>
       </c>
       <c r="C24">
-        <v>0.05217644547100342</v>
+        <v>0.03419769242706332</v>
       </c>
       <c r="D24">
-        <v>0.05714623717372111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05975971369813284</v>
+      </c>
+      <c r="E24">
+        <v>0.01642740545667283</v>
+      </c>
+      <c r="F24">
+        <v>0.03396842749476661</v>
+      </c>
+      <c r="G24">
+        <v>0.0105583336094884</v>
+      </c>
+      <c r="H24">
+        <v>0.05730000482679407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0708174003693849</v>
+        <v>0.07743185873013766</v>
       </c>
       <c r="C25">
-        <v>0.05717946023156437</v>
+        <v>0.03887621836232896</v>
       </c>
       <c r="D25">
-        <v>0.06459040022953649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05116688873186715</v>
+      </c>
+      <c r="E25">
+        <v>0.02007734079566783</v>
+      </c>
+      <c r="F25">
+        <v>0.02420227960981561</v>
+      </c>
+      <c r="G25">
+        <v>0.01843617901227281</v>
+      </c>
+      <c r="H25">
+        <v>0.05768645436879851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04473020487930111</v>
+        <v>0.04697867272946336</v>
       </c>
       <c r="C26">
-        <v>0.01028663966826134</v>
+        <v>0.002297491158174079</v>
       </c>
       <c r="D26">
-        <v>0.01331906188982297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01947320751357796</v>
+      </c>
+      <c r="E26">
+        <v>0.05310362935957857</v>
+      </c>
+      <c r="F26">
+        <v>0.01955267871256967</v>
+      </c>
+      <c r="G26">
+        <v>-0.007062980515251035</v>
+      </c>
+      <c r="H26">
+        <v>0.05019062784169345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05101068512144961</v>
+        <v>0.06092151911355544</v>
       </c>
       <c r="C28">
-        <v>0.07527775753609914</v>
+        <v>0.08538223669645448</v>
       </c>
       <c r="D28">
-        <v>-0.3144858000593839</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3074153714699095</v>
+      </c>
+      <c r="E28">
+        <v>0.02495756637987988</v>
+      </c>
+      <c r="F28">
+        <v>0.05454805116997035</v>
+      </c>
+      <c r="G28">
+        <v>0.03686115348643235</v>
+      </c>
+      <c r="H28">
+        <v>-0.0403693885219398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03961406605163585</v>
+        <v>0.04774805079193464</v>
       </c>
       <c r="C29">
-        <v>0.03122361729991091</v>
+        <v>0.02620359398626104</v>
       </c>
       <c r="D29">
-        <v>0.001896119501899109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.005721031182428384</v>
+      </c>
+      <c r="E29">
+        <v>0.05561545383713128</v>
+      </c>
+      <c r="F29">
+        <v>-0.0005413247657157931</v>
+      </c>
+      <c r="G29">
+        <v>-0.01280508523185314</v>
+      </c>
+      <c r="H29">
+        <v>0.07867061758239648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1273832310427298</v>
+        <v>0.1324776086168358</v>
       </c>
       <c r="C30">
-        <v>0.09614401160428129</v>
+        <v>0.06548089359237362</v>
       </c>
       <c r="D30">
-        <v>0.1118197948310834</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06837188082256634</v>
+      </c>
+      <c r="E30">
+        <v>0.08398468482577721</v>
+      </c>
+      <c r="F30">
+        <v>-0.02394878385339587</v>
+      </c>
+      <c r="G30">
+        <v>0.0775073482703551</v>
+      </c>
+      <c r="H30">
+        <v>-0.04071235025271332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04182357375197029</v>
+        <v>0.04856525258497441</v>
       </c>
       <c r="C31">
-        <v>0.02249595381630475</v>
+        <v>0.0150501528194651</v>
       </c>
       <c r="D31">
-        <v>0.02851111390779936</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0258715731519319</v>
+      </c>
+      <c r="E31">
+        <v>0.02728319700144896</v>
+      </c>
+      <c r="F31">
+        <v>0.008765923902164458</v>
+      </c>
+      <c r="G31">
+        <v>-0.029358615128866</v>
+      </c>
+      <c r="H31">
+        <v>0.06289128455962559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03581856661292088</v>
+        <v>0.03886613638394433</v>
       </c>
       <c r="C32">
-        <v>0.02453256275907224</v>
+        <v>0.01895375926281057</v>
       </c>
       <c r="D32">
-        <v>0.02617165547508289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01061975953193833</v>
+      </c>
+      <c r="E32">
+        <v>0.07106962529391264</v>
+      </c>
+      <c r="F32">
+        <v>-0.01944973960938561</v>
+      </c>
+      <c r="G32">
+        <v>0.0200571329623544</v>
+      </c>
+      <c r="H32">
+        <v>0.07126029019677894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08221753732604511</v>
+        <v>0.09529186405437598</v>
       </c>
       <c r="C33">
-        <v>0.04409154514109618</v>
+        <v>0.02720007739227354</v>
       </c>
       <c r="D33">
-        <v>0.06634225733668306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0485082707559838</v>
+      </c>
+      <c r="E33">
+        <v>0.01507704515784184</v>
+      </c>
+      <c r="F33">
+        <v>0.002093936580182819</v>
+      </c>
+      <c r="G33">
+        <v>-0.008631438705255923</v>
+      </c>
+      <c r="H33">
+        <v>0.05924768775052067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05594137624762813</v>
+        <v>0.06227769096943813</v>
       </c>
       <c r="C34">
-        <v>0.02887346928932603</v>
+        <v>0.01432157791882011</v>
       </c>
       <c r="D34">
-        <v>0.05610485870020363</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05377383273905303</v>
+      </c>
+      <c r="E34">
+        <v>0.009068620269778484</v>
+      </c>
+      <c r="F34">
+        <v>0.01746183376284612</v>
+      </c>
+      <c r="G34">
+        <v>0.0005819860567061481</v>
+      </c>
+      <c r="H34">
+        <v>0.05678009946015879</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0375322645282626</v>
+        <v>0.03989165946963207</v>
       </c>
       <c r="C35">
-        <v>0.009043477439607784</v>
+        <v>0.003455818442151275</v>
       </c>
       <c r="D35">
-        <v>0.00759403007538359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008889387973272307</v>
+      </c>
+      <c r="E35">
+        <v>0.01817266052098438</v>
+      </c>
+      <c r="F35">
+        <v>-0.01838103200880533</v>
+      </c>
+      <c r="G35">
+        <v>-0.01254812324905962</v>
+      </c>
+      <c r="H35">
+        <v>0.01866697662507454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01998700937018179</v>
+        <v>0.02732256428274857</v>
       </c>
       <c r="C36">
-        <v>0.01746763126260356</v>
+        <v>0.01418519955915977</v>
       </c>
       <c r="D36">
-        <v>0.01878174929115237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01312573172583232</v>
+      </c>
+      <c r="E36">
+        <v>0.04396354503149191</v>
+      </c>
+      <c r="F36">
+        <v>0.01322419331203382</v>
+      </c>
+      <c r="G36">
+        <v>-0.01019857831746373</v>
+      </c>
+      <c r="H36">
+        <v>0.04186878087796661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03855865883160499</v>
+        <v>0.04363748535021233</v>
       </c>
       <c r="C38">
-        <v>0.00349016184562644</v>
+        <v>-0.001002501438447359</v>
       </c>
       <c r="D38">
-        <v>0.01856516486981818</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01691168904305161</v>
+      </c>
+      <c r="E38">
+        <v>0.05162989660139342</v>
+      </c>
+      <c r="F38">
+        <v>-0.01561137878482743</v>
+      </c>
+      <c r="G38">
+        <v>0.007346430272297685</v>
+      </c>
+      <c r="H38">
+        <v>0.03222662252678279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0919737214424559</v>
+        <v>0.1036401260281075</v>
       </c>
       <c r="C39">
-        <v>0.07479899552314599</v>
+        <v>0.05277418331793334</v>
       </c>
       <c r="D39">
-        <v>0.05830337111341825</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05959720404791505</v>
+      </c>
+      <c r="E39">
+        <v>-0.001016181393764874</v>
+      </c>
+      <c r="F39">
+        <v>0.002813230523823625</v>
+      </c>
+      <c r="G39">
+        <v>0.03095916282081958</v>
+      </c>
+      <c r="H39">
+        <v>0.05080646517423261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07546146754789189</v>
+        <v>0.07197648541827058</v>
       </c>
       <c r="C40">
-        <v>0.04237730875287679</v>
+        <v>0.02079559528961731</v>
       </c>
       <c r="D40">
-        <v>-0.005912978605446562</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01036739772269029</v>
+      </c>
+      <c r="E40">
+        <v>0.01987782708332601</v>
+      </c>
+      <c r="F40">
+        <v>-0.05424563573957684</v>
+      </c>
+      <c r="G40">
+        <v>0.05779323163030411</v>
+      </c>
+      <c r="H40">
+        <v>-0.1078039864028923</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04091167480201122</v>
+        <v>0.0433612100628018</v>
       </c>
       <c r="C41">
-        <v>0.005740121709719907</v>
+        <v>-0.001853833019251179</v>
       </c>
       <c r="D41">
-        <v>0.0389105145752436</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03522791594297582</v>
+      </c>
+      <c r="E41">
+        <v>0.004875132606011173</v>
+      </c>
+      <c r="F41">
+        <v>-0.01675797878477028</v>
+      </c>
+      <c r="G41">
+        <v>0.009205181562266625</v>
+      </c>
+      <c r="H41">
+        <v>0.03316891114800015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04700500832780814</v>
+        <v>0.05734780862750947</v>
       </c>
       <c r="C43">
-        <v>0.0260020003363271</v>
+        <v>0.01772305203044251</v>
       </c>
       <c r="D43">
-        <v>0.01909130915412262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02595892278821928</v>
+      </c>
+      <c r="E43">
+        <v>0.01971287235813437</v>
+      </c>
+      <c r="F43">
+        <v>0.00920021201374777</v>
+      </c>
+      <c r="G43">
+        <v>-0.01976748245164417</v>
+      </c>
+      <c r="H43">
+        <v>0.05126356226339179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09362055007856653</v>
+        <v>0.09520775962237676</v>
       </c>
       <c r="C44">
-        <v>0.09383662812731743</v>
+        <v>0.06615481578062776</v>
       </c>
       <c r="D44">
-        <v>0.0800273968641023</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05942821206233277</v>
+      </c>
+      <c r="E44">
+        <v>0.09364745085305232</v>
+      </c>
+      <c r="F44">
+        <v>0.03604117198996149</v>
+      </c>
+      <c r="G44">
+        <v>0.02803476412196969</v>
+      </c>
+      <c r="H44">
+        <v>0.02109025485467951</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02479021083157065</v>
+        <v>0.0331587048114321</v>
       </c>
       <c r="C46">
-        <v>0.01453852754516875</v>
+        <v>0.01204026333272409</v>
       </c>
       <c r="D46">
-        <v>0.0197313288683003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03085334678416281</v>
+      </c>
+      <c r="E46">
+        <v>0.02920794304304892</v>
+      </c>
+      <c r="F46">
+        <v>0.01496491615093431</v>
+      </c>
+      <c r="G46">
+        <v>-0.002990371928169075</v>
+      </c>
+      <c r="H46">
+        <v>0.03682498426635196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03031308694889006</v>
+        <v>0.03817995542067682</v>
       </c>
       <c r="C47">
-        <v>0.02485795234458585</v>
+        <v>0.02042370859500285</v>
       </c>
       <c r="D47">
-        <v>0.01003269423507888</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008976417861293837</v>
+      </c>
+      <c r="E47">
+        <v>0.05030520474397115</v>
+      </c>
+      <c r="F47">
+        <v>0.006412352751590346</v>
+      </c>
+      <c r="G47">
+        <v>-0.04291743919983806</v>
+      </c>
+      <c r="H47">
+        <v>0.02260322486296034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03158906221731148</v>
+        <v>0.0373178129551516</v>
       </c>
       <c r="C48">
-        <v>0.01789757605573747</v>
+        <v>0.01166483582440536</v>
       </c>
       <c r="D48">
-        <v>0.03152712274759369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01952038048825259</v>
+      </c>
+      <c r="E48">
+        <v>0.04344047611157845</v>
+      </c>
+      <c r="F48">
+        <v>-0.0002324593441412332</v>
+      </c>
+      <c r="G48">
+        <v>0.01140235907883467</v>
+      </c>
+      <c r="H48">
+        <v>0.04095347033636455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1622805281235376</v>
+        <v>0.1905978751062478</v>
       </c>
       <c r="C49">
-        <v>0.06309132735795187</v>
+        <v>0.03652955024138064</v>
       </c>
       <c r="D49">
-        <v>-0.01986727327498129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02835311809283605</v>
+      </c>
+      <c r="E49">
+        <v>-0.147384671337782</v>
+      </c>
+      <c r="F49">
+        <v>0.08243090435855262</v>
+      </c>
+      <c r="G49">
+        <v>-0.04898981371238295</v>
+      </c>
+      <c r="H49">
+        <v>-0.2371714252749138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03922913891757943</v>
+        <v>0.04577386151235143</v>
       </c>
       <c r="C50">
-        <v>0.02660228689181204</v>
+        <v>0.01926610559223742</v>
       </c>
       <c r="D50">
-        <v>0.03601712092723201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02990535907985453</v>
+      </c>
+      <c r="E50">
+        <v>0.05099338920498822</v>
+      </c>
+      <c r="F50">
+        <v>0.009765806958643739</v>
+      </c>
+      <c r="G50">
+        <v>-0.02411855414383184</v>
+      </c>
+      <c r="H50">
+        <v>0.0604639641008699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02492674377510899</v>
+        <v>0.029926461950132</v>
       </c>
       <c r="C51">
-        <v>0.008665387818585701</v>
+        <v>0.004377048885456353</v>
       </c>
       <c r="D51">
-        <v>0.01607973359981279</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01344258204596364</v>
+      </c>
+      <c r="E51">
+        <v>0.01270750576767891</v>
+      </c>
+      <c r="F51">
+        <v>0.0188811612677536</v>
+      </c>
+      <c r="G51">
+        <v>0.000189171796438754</v>
+      </c>
+      <c r="H51">
+        <v>-0.002649411805914693</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1521632760794991</v>
+        <v>0.1630074581933958</v>
       </c>
       <c r="C53">
-        <v>0.0798686931707607</v>
+        <v>0.0528513129239118</v>
       </c>
       <c r="D53">
-        <v>0.02201165147629368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01846520205272805</v>
+      </c>
+      <c r="E53">
+        <v>-0.02706455279226363</v>
+      </c>
+      <c r="F53">
+        <v>0.01959722030148284</v>
+      </c>
+      <c r="G53">
+        <v>-0.02507419996590618</v>
+      </c>
+      <c r="H53">
+        <v>0.1772764896338757</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05563992844928494</v>
+        <v>0.05779458080402652</v>
       </c>
       <c r="C54">
-        <v>0.02673735625663173</v>
+        <v>0.01512798097006812</v>
       </c>
       <c r="D54">
-        <v>0.02268999831638853</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01785595168735993</v>
+      </c>
+      <c r="E54">
+        <v>0.05070267924871461</v>
+      </c>
+      <c r="F54">
+        <v>0.002755353559494069</v>
+      </c>
+      <c r="G54">
+        <v>0.0118874483495252</v>
+      </c>
+      <c r="H54">
+        <v>0.04770249121540907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09981992353236879</v>
+        <v>0.1038700704077389</v>
       </c>
       <c r="C55">
-        <v>0.05476052282681677</v>
+        <v>0.0347048805413647</v>
       </c>
       <c r="D55">
-        <v>0.02263940161470493</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02220087579007832</v>
+      </c>
+      <c r="E55">
+        <v>0.01865098673092796</v>
+      </c>
+      <c r="F55">
+        <v>0.01536244306794313</v>
+      </c>
+      <c r="G55">
+        <v>-0.01889970613170596</v>
+      </c>
+      <c r="H55">
+        <v>0.1524247256820731</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.147234227469888</v>
+        <v>0.1609946774391279</v>
       </c>
       <c r="C56">
-        <v>0.09155478443259424</v>
+        <v>0.06429183695943542</v>
       </c>
       <c r="D56">
-        <v>0.01716929047141629</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01711402596667899</v>
+      </c>
+      <c r="E56">
+        <v>-0.02412504679192729</v>
+      </c>
+      <c r="F56">
+        <v>0.03963198369654972</v>
+      </c>
+      <c r="G56">
+        <v>-0.03672480124979042</v>
+      </c>
+      <c r="H56">
+        <v>0.1766293116015535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1270472106109425</v>
+        <v>0.09753876025309553</v>
       </c>
       <c r="C58">
-        <v>0.008441832616895897</v>
+        <v>-0.03530486637420717</v>
       </c>
       <c r="D58">
-        <v>0.02520843857525833</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03920138141420577</v>
+      </c>
+      <c r="E58">
+        <v>0.171842684713985</v>
+      </c>
+      <c r="F58">
+        <v>-0.01515334651586421</v>
+      </c>
+      <c r="G58">
+        <v>-0.03124633577683468</v>
+      </c>
+      <c r="H58">
+        <v>-0.2405535478393493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1184472406369458</v>
+        <v>0.1356358710989051</v>
       </c>
       <c r="C59">
-        <v>0.0792822207713088</v>
+        <v>0.08523624704059717</v>
       </c>
       <c r="D59">
-        <v>-0.3527223679036902</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3651998220351165</v>
+      </c>
+      <c r="E59">
+        <v>0.02214866682985767</v>
+      </c>
+      <c r="F59">
+        <v>0.01956921987662064</v>
+      </c>
+      <c r="G59">
+        <v>-0.02354002249587835</v>
+      </c>
+      <c r="H59">
+        <v>-0.001983607750621867</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2011825467500709</v>
+        <v>0.2322344040803932</v>
       </c>
       <c r="C60">
-        <v>0.1037782482969302</v>
+        <v>0.06878449695207189</v>
       </c>
       <c r="D60">
-        <v>0.005802657688730022</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03881822667266002</v>
+      </c>
+      <c r="E60">
+        <v>-0.09228098242121374</v>
+      </c>
+      <c r="F60">
+        <v>0.0696283263203793</v>
+      </c>
+      <c r="G60">
+        <v>0.02844509385139127</v>
+      </c>
+      <c r="H60">
+        <v>-0.1517274805765008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08008021136175746</v>
+        <v>0.08951531046154503</v>
       </c>
       <c r="C61">
-        <v>0.05400969816169302</v>
+        <v>0.03859539130345318</v>
       </c>
       <c r="D61">
-        <v>0.04414659009088204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0401552828175557</v>
+      </c>
+      <c r="E61">
+        <v>-0.003717309096476238</v>
+      </c>
+      <c r="F61">
+        <v>0.002985389762364605</v>
+      </c>
+      <c r="G61">
+        <v>-0.002925855669086945</v>
+      </c>
+      <c r="H61">
+        <v>0.066043258475567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.128079130716998</v>
+        <v>0.1397934748152745</v>
       </c>
       <c r="C62">
-        <v>0.0661660726044575</v>
+        <v>0.04207408018431454</v>
       </c>
       <c r="D62">
-        <v>0.03109585121615504</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.02925868849159367</v>
+      </c>
+      <c r="E62">
+        <v>-0.06115448833102215</v>
+      </c>
+      <c r="F62">
+        <v>0.01934113967625258</v>
+      </c>
+      <c r="G62">
+        <v>0.006403969087198504</v>
+      </c>
+      <c r="H62">
+        <v>0.1968202516584214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0501968395800127</v>
+        <v>0.0499730911350627</v>
       </c>
       <c r="C63">
-        <v>0.02453757519876023</v>
+        <v>0.01256213890546947</v>
       </c>
       <c r="D63">
-        <v>0.02290986697721732</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02100236490095718</v>
+      </c>
+      <c r="E63">
+        <v>0.05296564205065261</v>
+      </c>
+      <c r="F63">
+        <v>-0.01636435549633381</v>
+      </c>
+      <c r="G63">
+        <v>0.01966722864758151</v>
+      </c>
+      <c r="H63">
+        <v>0.05734839258359874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1048166192690466</v>
+        <v>0.1090613567397847</v>
       </c>
       <c r="C64">
-        <v>0.02420409182083361</v>
+        <v>0.004461417170861394</v>
       </c>
       <c r="D64">
-        <v>0.06005034664947542</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04005475380271688</v>
+      </c>
+      <c r="E64">
+        <v>0.04698270837760061</v>
+      </c>
+      <c r="F64">
+        <v>0.04143857359043798</v>
+      </c>
+      <c r="G64">
+        <v>0.04761511387805953</v>
+      </c>
+      <c r="H64">
+        <v>0.06061237523975734</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1220731992785626</v>
+        <v>0.1260435787480782</v>
       </c>
       <c r="C65">
-        <v>0.06214805864278745</v>
+        <v>0.03950700187971502</v>
       </c>
       <c r="D65">
-        <v>-0.02341613757727889</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.002396667881163174</v>
+      </c>
+      <c r="E65">
+        <v>0.01542290156125518</v>
+      </c>
+      <c r="F65">
+        <v>0.05343914161300978</v>
+      </c>
+      <c r="G65">
+        <v>0.05957466700289734</v>
+      </c>
+      <c r="H65">
+        <v>-0.1372313893976244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1435681633707064</v>
+        <v>0.155488588689873</v>
       </c>
       <c r="C66">
-        <v>0.0806453687992135</v>
+        <v>0.04995230662116185</v>
       </c>
       <c r="D66">
-        <v>0.1118212726622621</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09452311842498963</v>
+      </c>
+      <c r="E66">
+        <v>-0.03110987670361976</v>
+      </c>
+      <c r="F66">
+        <v>0.01652332943936143</v>
+      </c>
+      <c r="G66">
+        <v>0.04183533791314308</v>
+      </c>
+      <c r="H66">
+        <v>0.124895202910143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07068174017260333</v>
+        <v>0.08303243189713738</v>
       </c>
       <c r="C67">
-        <v>0.01369815250584102</v>
+        <v>0.005306354361852509</v>
       </c>
       <c r="D67">
-        <v>0.02412960672276138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03058832917388882</v>
+      </c>
+      <c r="E67">
+        <v>0.02201652984466484</v>
+      </c>
+      <c r="F67">
+        <v>0.01601027876592527</v>
+      </c>
+      <c r="G67">
+        <v>-0.01108916399800405</v>
+      </c>
+      <c r="H67">
+        <v>0.03419264274793105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05777777702863186</v>
+        <v>0.05652344796572004</v>
       </c>
       <c r="C68">
-        <v>0.05074554358058794</v>
+        <v>0.05718892156252445</v>
       </c>
       <c r="D68">
-        <v>-0.2524264645120058</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2695019795056253</v>
+      </c>
+      <c r="E68">
+        <v>0.03460514783316614</v>
+      </c>
+      <c r="F68">
+        <v>0.01493230277288325</v>
+      </c>
+      <c r="G68">
+        <v>-0.01357790137048352</v>
+      </c>
+      <c r="H68">
+        <v>0.00406824846087256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05297058707993332</v>
+        <v>0.05352988972907106</v>
       </c>
       <c r="C69">
-        <v>0.01849109722685996</v>
+        <v>0.006114239361558472</v>
       </c>
       <c r="D69">
-        <v>0.01648957529915885</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01443585598917969</v>
+      </c>
+      <c r="E69">
+        <v>0.02424657833058143</v>
+      </c>
+      <c r="F69">
+        <v>-0.009698317968472257</v>
+      </c>
+      <c r="G69">
+        <v>-0.02166748779898165</v>
+      </c>
+      <c r="H69">
+        <v>0.0476641516416153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.00557404205963318</v>
+        <v>0.02714894002634984</v>
       </c>
       <c r="C70">
-        <v>-0.005894125086557218</v>
+        <v>-0.0003627996245561289</v>
       </c>
       <c r="D70">
-        <v>-0.0002116826389545385</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.001896105246139712</v>
+      </c>
+      <c r="E70">
+        <v>-0.02414159061103452</v>
+      </c>
+      <c r="F70">
+        <v>0.02310543707264213</v>
+      </c>
+      <c r="G70">
+        <v>-0.02167314328716624</v>
+      </c>
+      <c r="H70">
+        <v>-0.03574604278033945</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05760766828439497</v>
+        <v>0.05929852757493739</v>
       </c>
       <c r="C71">
-        <v>0.05131145564938219</v>
+        <v>0.06168683075217878</v>
       </c>
       <c r="D71">
-        <v>-0.2956993805446876</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2965259568763742</v>
+      </c>
+      <c r="E71">
+        <v>0.03066587100456805</v>
+      </c>
+      <c r="F71">
+        <v>0.0435967573392896</v>
+      </c>
+      <c r="G71">
+        <v>-0.001970815151296175</v>
+      </c>
+      <c r="H71">
+        <v>0.008826085935498834</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1398935475701313</v>
+        <v>0.1458814633432605</v>
       </c>
       <c r="C72">
-        <v>0.06518998559935363</v>
+        <v>0.03592800394708671</v>
       </c>
       <c r="D72">
-        <v>0.003720584643205103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0069203780545127</v>
+      </c>
+      <c r="E72">
+        <v>-0.1130597088770219</v>
+      </c>
+      <c r="F72">
+        <v>-0.1570358757192342</v>
+      </c>
+      <c r="G72">
+        <v>0.1215360502241161</v>
+      </c>
+      <c r="H72">
+        <v>0.02079112077832998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2735726474407654</v>
+        <v>0.2881359102680664</v>
       </c>
       <c r="C73">
-        <v>0.1137267923692384</v>
+        <v>0.04847577931631548</v>
       </c>
       <c r="D73">
-        <v>0.0420176425068992</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09734205838841638</v>
+      </c>
+      <c r="E73">
+        <v>-0.2093965108785146</v>
+      </c>
+      <c r="F73">
+        <v>0.1309377762761403</v>
+      </c>
+      <c r="G73">
+        <v>-0.131003088012187</v>
+      </c>
+      <c r="H73">
+        <v>-0.4890604686600339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07966032758888361</v>
+        <v>0.0931550698684933</v>
       </c>
       <c r="C74">
-        <v>0.07688788655533189</v>
+        <v>0.0598680616513043</v>
       </c>
       <c r="D74">
-        <v>0.01605748418463601</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02931197807182389</v>
+      </c>
+      <c r="E74">
+        <v>-0.007428163665393321</v>
+      </c>
+      <c r="F74">
+        <v>-0.001503727778818129</v>
+      </c>
+      <c r="G74">
+        <v>-0.06036281116755444</v>
+      </c>
+      <c r="H74">
+        <v>0.1190836982709403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09392864003909773</v>
+        <v>0.09955380202449944</v>
       </c>
       <c r="C75">
-        <v>0.05505399689448447</v>
+        <v>0.02989172589733992</v>
       </c>
       <c r="D75">
-        <v>0.006522380889869558</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01439164063151267</v>
+      </c>
+      <c r="E75">
+        <v>0.008422930979422316</v>
+      </c>
+      <c r="F75">
+        <v>0.02615660364422462</v>
+      </c>
+      <c r="G75">
+        <v>-0.02712081794842443</v>
+      </c>
+      <c r="H75">
+        <v>0.1148926578635724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.130446169713928</v>
+        <v>0.1408591583380026</v>
       </c>
       <c r="C76">
-        <v>0.08464212309985814</v>
+        <v>0.05794523325485137</v>
       </c>
       <c r="D76">
-        <v>0.05064647554305265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04978100755540087</v>
+      </c>
+      <c r="E76">
+        <v>0.0286886386470532</v>
+      </c>
+      <c r="F76">
+        <v>0.04453237758048783</v>
+      </c>
+      <c r="G76">
+        <v>-0.02533964616997706</v>
+      </c>
+      <c r="H76">
+        <v>0.2001504335999798</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1132693391993306</v>
+        <v>0.1081028040421902</v>
       </c>
       <c r="C77">
-        <v>0.02098213220702027</v>
+        <v>-0.007891294140731699</v>
       </c>
       <c r="D77">
-        <v>0.05237777186774089</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02370897000957089</v>
+      </c>
+      <c r="E77">
+        <v>0.04401441329098198</v>
+      </c>
+      <c r="F77">
+        <v>0.1036616473986476</v>
+      </c>
+      <c r="G77">
+        <v>0.8938695848103525</v>
+      </c>
+      <c r="H77">
+        <v>-0.07309462581647092</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1001136719243591</v>
+        <v>0.1388850813142692</v>
       </c>
       <c r="C78">
-        <v>0.0411026738293727</v>
+        <v>0.03400926178528166</v>
       </c>
       <c r="D78">
-        <v>0.08108255309233869</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08556144932877809</v>
+      </c>
+      <c r="E78">
+        <v>0.05936929955660538</v>
+      </c>
+      <c r="F78">
+        <v>0.03355586906940836</v>
+      </c>
+      <c r="G78">
+        <v>0.08542473895636279</v>
+      </c>
+      <c r="H78">
+        <v>-0.0441141558520537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.146085953090715</v>
+        <v>0.1518660693613183</v>
       </c>
       <c r="C79">
-        <v>0.07666604584540287</v>
+        <v>0.04389595835638306</v>
       </c>
       <c r="D79">
-        <v>0.03004247213449369</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02685761047327816</v>
+      </c>
+      <c r="E79">
+        <v>-0.01245792846185708</v>
+      </c>
+      <c r="F79">
+        <v>0.01989818977780762</v>
+      </c>
+      <c r="G79">
+        <v>-0.04166506783088929</v>
+      </c>
+      <c r="H79">
+        <v>0.1740730227712179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04598402780097501</v>
+        <v>0.04313968421233748</v>
       </c>
       <c r="C80">
-        <v>0.01558694838752116</v>
+        <v>0.005649114189294714</v>
       </c>
       <c r="D80">
-        <v>0.02773039939611443</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01916872411955959</v>
+      </c>
+      <c r="E80">
+        <v>-0.008381481757456949</v>
+      </c>
+      <c r="F80">
+        <v>-0.005539291630620164</v>
+      </c>
+      <c r="G80">
+        <v>-0.03576397434658476</v>
+      </c>
+      <c r="H80">
+        <v>0.03280753896925743</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1139770110836596</v>
+        <v>0.1201460236811928</v>
       </c>
       <c r="C81">
-        <v>0.06493891550532382</v>
+        <v>0.03881510913679403</v>
       </c>
       <c r="D81">
-        <v>0.03052828923661118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02214349299792499</v>
+      </c>
+      <c r="E81">
+        <v>0.02439073298894629</v>
+      </c>
+      <c r="F81">
+        <v>0.01521277971818722</v>
+      </c>
+      <c r="G81">
+        <v>-0.06501994016191197</v>
+      </c>
+      <c r="H81">
+        <v>0.1468255073465466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1308067873965716</v>
+        <v>0.1323071300010631</v>
       </c>
       <c r="C82">
-        <v>0.08096452038336276</v>
+        <v>0.05224466344100151</v>
       </c>
       <c r="D82">
-        <v>0.01501277712120609</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02612059217072593</v>
+      </c>
+      <c r="E82">
+        <v>-0.01394310402717882</v>
+      </c>
+      <c r="F82">
+        <v>0.05888289466403056</v>
+      </c>
+      <c r="G82">
+        <v>-0.05653789930914094</v>
+      </c>
+      <c r="H82">
+        <v>0.2083472043659896</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07850698680456561</v>
+        <v>0.0881819937465903</v>
       </c>
       <c r="C83">
-        <v>-0.006788334837497434</v>
+        <v>-0.0221822215163136</v>
       </c>
       <c r="D83">
-        <v>0.02532808131999276</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03387948956159116</v>
+      </c>
+      <c r="E83">
+        <v>0.02637303847629058</v>
+      </c>
+      <c r="F83">
+        <v>0.05291639801364454</v>
+      </c>
+      <c r="G83">
+        <v>-0.07452811455950667</v>
+      </c>
+      <c r="H83">
+        <v>-0.0674089016679171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02727520223569699</v>
+        <v>0.0367341205644983</v>
       </c>
       <c r="C84">
-        <v>0.02615055672840597</v>
+        <v>0.02144881144746073</v>
       </c>
       <c r="D84">
-        <v>0.0341230325002818</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02966868400834581</v>
+      </c>
+      <c r="E84">
+        <v>0.01859594043844914</v>
+      </c>
+      <c r="F84">
+        <v>-0.05077657514792144</v>
+      </c>
+      <c r="G84">
+        <v>-0.0585753334391448</v>
+      </c>
+      <c r="H84">
+        <v>-0.003942757520446528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.119535525174266</v>
+        <v>0.1205347118993577</v>
       </c>
       <c r="C85">
-        <v>0.05814887762224979</v>
+        <v>0.0290777613722863</v>
       </c>
       <c r="D85">
-        <v>0.0177402288559999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02263544595841564</v>
+      </c>
+      <c r="E85">
+        <v>0.02545342980734639</v>
+      </c>
+      <c r="F85">
+        <v>0.03978852359424349</v>
+      </c>
+      <c r="G85">
+        <v>-0.03471619406651215</v>
+      </c>
+      <c r="H85">
+        <v>0.1508810181348567</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0511785772788338</v>
+        <v>0.05844159429076509</v>
       </c>
       <c r="C86">
-        <v>0.03136795801524723</v>
+        <v>0.02039229024905775</v>
       </c>
       <c r="D86">
-        <v>0.02144954959914351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02301467701276301</v>
+      </c>
+      <c r="E86">
+        <v>0.06628421769277811</v>
+      </c>
+      <c r="F86">
+        <v>0.02540974824516644</v>
+      </c>
+      <c r="G86">
+        <v>-0.02345247479504474</v>
+      </c>
+      <c r="H86">
+        <v>-0.01261639413159196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1218560093851125</v>
+        <v>0.1228071377389959</v>
       </c>
       <c r="C87">
-        <v>0.07260517954338169</v>
+        <v>0.03776154174610311</v>
       </c>
       <c r="D87">
-        <v>0.07455129228590186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07449268284672174</v>
+      </c>
+      <c r="E87">
+        <v>0.02403639806386402</v>
+      </c>
+      <c r="F87">
+        <v>-0.007988512699885883</v>
+      </c>
+      <c r="G87">
+        <v>0.1290234692667367</v>
+      </c>
+      <c r="H87">
+        <v>-0.03543777422107411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05269102726788194</v>
+        <v>0.0603169016405351</v>
       </c>
       <c r="C88">
-        <v>0.02942734996833528</v>
+        <v>0.01910566092649567</v>
       </c>
       <c r="D88">
-        <v>0.01892259869907088</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03046395402274618</v>
+      </c>
+      <c r="E88">
+        <v>0.02033953417333473</v>
+      </c>
+      <c r="F88">
+        <v>0.006722606761166527</v>
+      </c>
+      <c r="G88">
+        <v>0.005511734186959425</v>
+      </c>
+      <c r="H88">
+        <v>0.05190687664669572</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08135835046516833</v>
+        <v>0.09213254481705761</v>
       </c>
       <c r="C89">
-        <v>0.06907919771176635</v>
+        <v>0.08002098678010716</v>
       </c>
       <c r="D89">
-        <v>-0.328104746187066</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3490172860929024</v>
+      </c>
+      <c r="E89">
+        <v>0.06899305026944968</v>
+      </c>
+      <c r="F89">
+        <v>0.08270165231535433</v>
+      </c>
+      <c r="G89">
+        <v>-0.02278130041317305</v>
+      </c>
+      <c r="H89">
+        <v>0.009969648677263363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07285393794207812</v>
+        <v>0.07770473747827535</v>
       </c>
       <c r="C90">
-        <v>0.06170394391308398</v>
+        <v>0.06873556030197323</v>
       </c>
       <c r="D90">
-        <v>-0.3246076685549414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3093525889323275</v>
+      </c>
+      <c r="E90">
+        <v>0.05997602530535557</v>
+      </c>
+      <c r="F90">
+        <v>0.0006320556904087193</v>
+      </c>
+      <c r="G90">
+        <v>-0.002440657818291037</v>
+      </c>
+      <c r="H90">
+        <v>0.001629030174992781</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08561551345978453</v>
+        <v>0.08953336456502405</v>
       </c>
       <c r="C91">
-        <v>0.05679764084684311</v>
+        <v>0.03462373321018606</v>
       </c>
       <c r="D91">
-        <v>0.03180544705965618</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03073195030595062</v>
+      </c>
+      <c r="E91">
+        <v>0.01524678294487516</v>
+      </c>
+      <c r="F91">
+        <v>0.006334901721366235</v>
+      </c>
+      <c r="G91">
+        <v>-0.05491523431876068</v>
+      </c>
+      <c r="H91">
+        <v>0.07638336016876432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07346864015735118</v>
+        <v>0.07740831072273904</v>
       </c>
       <c r="C92">
-        <v>0.07239380369655497</v>
+        <v>0.08075500179056176</v>
       </c>
       <c r="D92">
-        <v>-0.3435079686609433</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3441909260445232</v>
+      </c>
+      <c r="E92">
+        <v>0.0438816587214439</v>
+      </c>
+      <c r="F92">
+        <v>0.03825463740403595</v>
+      </c>
+      <c r="G92">
+        <v>0.01172411857000785</v>
+      </c>
+      <c r="H92">
+        <v>0.01751823613916113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06454933933453957</v>
+        <v>0.07526860483546909</v>
       </c>
       <c r="C93">
-        <v>0.06535143265077173</v>
+        <v>0.078896344888593</v>
       </c>
       <c r="D93">
-        <v>-0.3160700020479677</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.306389777454915</v>
+      </c>
+      <c r="E93">
+        <v>0.03578644406902338</v>
+      </c>
+      <c r="F93">
+        <v>0.0385470782269873</v>
+      </c>
+      <c r="G93">
+        <v>0.01763910474594645</v>
+      </c>
+      <c r="H93">
+        <v>-0.00940139668987682</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1312135000669324</v>
+        <v>0.126347224893448</v>
       </c>
       <c r="C94">
-        <v>0.05679714248793426</v>
+        <v>0.02223261030928099</v>
       </c>
       <c r="D94">
-        <v>0.04393149916094212</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04851130464277555</v>
+      </c>
+      <c r="E94">
+        <v>-0.001624708346936194</v>
+      </c>
+      <c r="F94">
+        <v>0.02167787221575822</v>
+      </c>
+      <c r="G94">
+        <v>-0.06459979394527188</v>
+      </c>
+      <c r="H94">
+        <v>0.09660107857990465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1181114844052979</v>
+        <v>0.1262983106231659</v>
       </c>
       <c r="C95">
-        <v>0.03214480355574521</v>
+        <v>0.004568832781587251</v>
       </c>
       <c r="D95">
-        <v>0.05874334461349912</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06876863064236408</v>
+      </c>
+      <c r="E95">
+        <v>0.0169999108857136</v>
+      </c>
+      <c r="F95">
+        <v>0.04310471262310674</v>
+      </c>
+      <c r="G95">
+        <v>0.02581872162814563</v>
+      </c>
+      <c r="H95">
+        <v>-0.06992266872775102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2105248381331297</v>
+        <v>0.2098748579181028</v>
       </c>
       <c r="C97">
-        <v>0.04660382616874632</v>
+        <v>0.001451109437011572</v>
       </c>
       <c r="D97">
-        <v>-0.07571223924272837</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08978519318235262</v>
+      </c>
+      <c r="E97">
+        <v>-0.3208403129145014</v>
+      </c>
+      <c r="F97">
+        <v>-0.8662091841712284</v>
+      </c>
+      <c r="G97">
+        <v>0.06852685393984184</v>
+      </c>
+      <c r="H97">
+        <v>0.008806425499663652</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2427899653656748</v>
+        <v>0.2746594269109321</v>
       </c>
       <c r="C98">
-        <v>0.07479372203057935</v>
+        <v>0.03419310514163981</v>
       </c>
       <c r="D98">
-        <v>0.04941920603131544</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05943868387436815</v>
+      </c>
+      <c r="E98">
+        <v>-0.1720727029320633</v>
+      </c>
+      <c r="F98">
+        <v>0.08872968795296941</v>
+      </c>
+      <c r="G98">
+        <v>-0.2290991228292285</v>
+      </c>
+      <c r="H98">
+        <v>-0.2457324035513421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.455300106892156</v>
+        <v>0.2866075437706397</v>
       </c>
       <c r="C99">
-        <v>-0.8740905803317798</v>
+        <v>-0.9338514895931012</v>
       </c>
       <c r="D99">
-        <v>-0.05545672342107456</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1312600235909404</v>
+      </c>
+      <c r="E99">
+        <v>0.06697532425081333</v>
+      </c>
+      <c r="F99">
+        <v>0.04716369483650853</v>
+      </c>
+      <c r="G99">
+        <v>-0.02306384212702966</v>
+      </c>
+      <c r="H99">
+        <v>0.0658943157170206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03966620571011615</v>
+        <v>0.04784068496566815</v>
       </c>
       <c r="C101">
-        <v>0.03120646327829148</v>
+        <v>0.02629222411405579</v>
       </c>
       <c r="D101">
-        <v>0.003222219772903679</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.006272424880171683</v>
+      </c>
+      <c r="E101">
+        <v>0.05466198715536227</v>
+      </c>
+      <c r="F101">
+        <v>-0.0009558026690406563</v>
+      </c>
+      <c r="G101">
+        <v>-0.01283774904590897</v>
+      </c>
+      <c r="H101">
+        <v>0.07799598794009306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
